--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11505" windowWidth="12150" xWindow="13830" yWindow="3630"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" state="visible" r:id="rId1"/>
@@ -405,16 +405,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="2" style="1" width="9.140625"/>
+    <col customWidth="1" max="2" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="3" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
@@ -489,6 +489,131 @@
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
@@ -514,8 +639,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="2" style="1" width="9.140625"/>
+    <col customWidth="1" max="2" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="3" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -616,6 +616,231 @@
       <c r="E8" t="inlineStr">
         <is>
           <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Olispa munkkeja</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>LäähPuuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>LäähPuuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Ryys</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Konde</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -841,6 +841,156 @@
       <c r="E17" t="inlineStr">
         <is>
           <t>Konde</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>047G-P</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Huomenna on RYÖpäivä</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Best taustakuva</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Note</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -989,6 +989,56 @@
         </is>
       </c>
       <c r="E23" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Note</t>
         </is>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1039,6 +1039,31 @@
         </is>
       </c>
       <c r="E25" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Note</t>
         </is>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1066,6 +1066,106 @@
       <c r="E26" t="inlineStr">
         <is>
           <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1164,6 +1164,256 @@
         </is>
       </c>
       <c r="E30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Ryys</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Bottu</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>WAREHOUSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>WAREHOUSE</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>WAREHOUSE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>SITE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>WAREHOUSE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1416,6 +1416,256 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Ez unet</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>öitä</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>WAREHOUSE</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SITE</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Läähpuuh</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
@@ -1666,6 +1666,31 @@
       <c r="E50" t="inlineStr">
         <is>
           <t>Läähpuuh</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>WAREHOUSE</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Teinipeili selfie piti ottaa pitkästä aikaa</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E5"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SITE</t>
+          <t>WAREHOUSE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -541,6 +541,31 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>🅱ottu ❤️</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SHORE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -405,7 +405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5:E5"/>
@@ -550,7 +550,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SHORE</t>
+          <t>SITE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -564,6 +564,31 @@
         </is>
       </c>
       <c r="E6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SITE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>N</t>
         </is>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -3,11 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11505" windowWidth="14790" xWindow="8205" yWindow="2895"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="28590" windowWidth="16440" xWindow="28680" yWindow="-8835"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="follows" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -405,16 +405,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="2" min="2" style="1" width="16.28515625"/>
+    <col customWidth="1" max="7" min="3" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
@@ -443,79 +445,84 @@
           <t>NOTE</t>
         </is>
       </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>USERS</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>-1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>N</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>NONE</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>S</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Note</t>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nn</t>
         </is>
       </c>
     </row>
@@ -525,7 +532,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAREHOUSE</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -540,7 +547,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>🅱ottu ❤️</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -550,7 +557,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SITE</t>
+          <t>OPENING</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -565,7 +572,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Note</t>
         </is>
       </c>
     </row>
@@ -575,7 +582,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SITE</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -606,24 +613,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="5" style="1" width="9.140625"/>
+    <col customWidth="1" max="7" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="8" style="1" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+    <row customFormat="1" r="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>046G</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>047G</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="28590" windowWidth="16440" xWindow="28680" yWindow="-8835"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" state="visible" r:id="rId1"/>
@@ -405,18 +405,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
     <col customWidth="1" max="2" min="2" style="1" width="16.28515625"/>
-    <col customWidth="1" max="7" min="3" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="9.140625"/>
+    <col customWidth="1" max="11" min="3" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="12" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
@@ -475,6 +475,11 @@
           <t>Note</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Eemeli</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -482,7 +487,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -498,6 +503,11 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Eemelioma</t>
         </is>
       </c>
     </row>
@@ -507,7 +517,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -522,7 +532,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nn</t>
+          <t>🅱atteri</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Eemeli:Eemelioma:Akseli</t>
         </is>
       </c>
     </row>
@@ -532,7 +547,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NONE</t>
+          <t>READY</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -547,57 +562,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OPENING</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>READY</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N</t>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Eemelioma:Akseli</t>
         </is>
       </c>
     </row>
@@ -613,16 +583,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="9.140625"/>
+    <col customWidth="1" max="11" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="12" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
@@ -631,12 +601,16 @@
           <t>S</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>046G</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>047G</t>
         </is>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15990" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13275" windowWidth="9105" xWindow="5265" yWindow="930"/>
   </bookViews>
   <sheets>
     <sheet name="lifts" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,6 +31,15 @@
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,12 +63,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -405,47 +417,47 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
     <col customWidth="1" max="2" min="2" style="1" width="16.28515625"/>
-    <col customWidth="1" max="11" min="3" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9.140625"/>
+    <col customWidth="1" max="15" min="3" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="16" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>STATE</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>SITE</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>OPENING</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>NOTE</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>USERS</t>
         </is>
@@ -487,7 +499,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>READY</t>
+          <t>NONE</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,75 +514,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eemelioma</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>READY</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>🅱atteri</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Eemeli:Eemelioma:Akseli</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>READY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>420</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Eemelioma:Akseli</t>
-        </is>
-      </c>
-    </row>
+          <t>Note</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12"/>
+    <row r="13"/>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16"/>
+    <row r="17"/>
+    <row r="18"/>
+    <row r="19"/>
+    <row r="20"/>
+    <row r="21"/>
+    <row r="22"/>
+    <row r="23"/>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="26"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -583,36 +553,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="11" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="12" style="1" width="9.140625"/>
+    <col customWidth="1" max="15" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="16" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>S</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Users...</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>...</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>046G</t>
+          <t>K3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>036G</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>36G</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>K4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>046P</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>046G</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>46G</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
           <t>047G</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>47G</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Pääkeittiö</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Eemeli</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Akseli</t>
         </is>
       </c>
     </row>

--- a/middleman-bot/middleman-bot/lifts.xlsx
+++ b/middleman-bot/middleman-bot/lifts.xlsx
@@ -417,18 +417,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="1" width="9.140625"/>
     <col customWidth="1" max="2" min="2" style="1" width="16.28515625"/>
-    <col customWidth="1" max="15" min="3" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="16" style="1" width="9.140625"/>
+    <col customWidth="1" max="16" min="3" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="17" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
@@ -514,33 +514,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Note</t>
-        </is>
-      </c>
-    </row>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -561,8 +538,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="15" min="1" style="1" width="9.140625"/>
-    <col customWidth="1" max="16384" min="16" style="1" width="9.140625"/>
+    <col customWidth="1" max="16" min="1" style="1" width="9.140625"/>
+    <col customWidth="1" max="16384" min="17" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="2">
